--- a/mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-24T09:25:28+00:00</t>
+    <t>2024-04-29T13:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
